--- a/chapter1_self/new.xlsx
+++ b/chapter1_self/new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7100"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一个工作簿" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -57,6 +57,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -64,7 +71,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,13 +98,77 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -91,14 +177,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,48 +192,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,53 +205,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +418,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -433,21 +457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -459,24 +468,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +489,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -509,148 +509,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -719,6 +719,208 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Chart Series"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chart Series</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>第一个工作簿!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -929,19 +1131,44 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7200000" cy="3600000"/>
+    <xdr:ext cx="7200000" cy="3473000"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1885950" y="177800"/>
-        <a:ext cx="7199630" cy="3599815"/>
+        <a:off x="2057400" y="171450"/>
+        <a:ext cx="7199630" cy="3472815"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7200000" cy="3473000"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2057400" y="171450"/>
+        <a:ext cx="7199630" cy="3472815"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1237,11 +1464,11 @@
   <sheetPr/>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
@@ -1304,7 +1531,7 @@
       <selection activeCell="E2" sqref="E2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
@@ -1355,11 +1582,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
